--- a/Deliverable 3/Unit Test case report.xlsx
+++ b/Deliverable 3/Unit Test case report.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mo\Documents\GitHub\Pizza\Deliverable 3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>Pizza-Aholics Anonymous Application</t>
   </si>
@@ -204,12 +210,6 @@
     <t>UpdateMemberReportSchedule         UpdateSchedule</t>
   </si>
   <si>
-    <t>ManageReportController     ScheduleList</t>
-  </si>
-  <si>
-    <t>UpdateProviderReportSchedule         UpdateSchedule</t>
-  </si>
-  <si>
     <t>ManageReportController                             providerList                                                       ServiceRecordList</t>
   </si>
   <si>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>Use Case-to-Unit Test Relationship and Test Report</t>
+  </si>
+  <si>
+    <t>Add Service</t>
+  </si>
+  <si>
+    <t>Schedule Member Report</t>
+  </si>
+  <si>
+    <t>ManageAccount                         ScheduleList                                     Schedule</t>
+  </si>
+  <si>
+    <t>GetMember                                                     AddSchedule                                     GetReportType</t>
   </si>
 </sst>
 </file>
@@ -321,14 +333,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -353,8 +362,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -362,9 +377,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -634,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,519 +663,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="34.81640625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>11</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>5</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>17</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="B23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>18</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>7</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>9</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>11</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>15</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>17</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>18</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="E24" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
         <v>19</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E26" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>21</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
+        <v>23</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>21</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>23</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>24</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="E30" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
         <v>25</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="E31" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>26</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+      <c r="E32" s="10" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
